--- a/maze.xlsx
+++ b/maze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pupedu-my.sharepoint.com/personal/henryjamesrcarlos_iskolarngbayan_pup_edu_ph/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pupedu-my.sharepoint.com/personal/hanschristiannqueja_iskolarngbayan_pup_edu_ph/Documents/Third Year/Second Semester/Artificial Intelligence/rat-miz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DBED93-BCA1-4AEA-AD51-273A656EDE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{A6DBED93-BCA1-4AEA-AD51-273A656EDE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07BDADBE-6625-49C1-8152-0894B6FABB11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53C0DFC9-1E26-416E-9D69-F1570FEACB14}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{53C0DFC9-1E26-416E-9D69-F1570FEACB14}"/>
   </bookViews>
   <sheets>
     <sheet name="Maze" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,29 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -134,29 +157,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -168,6 +168,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,364 +491,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3650E983-7FA1-433D-B967-687FB1E2BE54}">
-  <dimension ref="A1:BE47"/>
+  <dimension ref="A1:BE48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BL22" sqref="BL22"/>
+      <selection activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="5.7109375" style="1"/>
+    <col min="1" max="16384" width="5.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>0</v>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="30" customHeight="1">
+    <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="30" customHeight="1">
+    <row r="3" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,8 +861,8 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -867,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>2</v>
@@ -885,40 +889,40 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>2</v>
@@ -930,25 +934,25 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>2</v>
@@ -960,19 +964,19 @@
         <v>2</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>2</v>
@@ -984,19 +988,19 @@
         <v>2</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>2</v>
@@ -1008,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>2</v>
@@ -1017,15 +1021,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="30" customHeight="1">
+    <row r="4" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1036,14 +1040,14 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>2</v>
@@ -1054,41 +1058,41 @@
       <c r="L4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>2</v>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>2</v>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>0</v>
@@ -1097,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>2</v>
@@ -1109,19 +1113,19 @@
         <v>2</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>2</v>
@@ -1136,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>2</v>
@@ -1151,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>2</v>
@@ -1160,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="1" t="s">
         <v>2</v>
@@ -1190,57 +1194,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="30" customHeight="1">
+    <row r="5" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>0</v>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>2</v>
@@ -1251,14 +1255,14 @@
       <c r="T5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>0</v>
+      <c r="U5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>2</v>
@@ -1267,22 +1271,22 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>2</v>
@@ -1291,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>0</v>
@@ -1312,22 +1316,22 @@
         <v>2</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>0</v>
@@ -1342,10 +1346,10 @@
         <v>2</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>0</v>
@@ -1363,57 +1367,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="30" customHeight="1">
+    <row r="6" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>2</v>
+      <c r="P6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>2</v>
@@ -1424,11 +1428,11 @@
       <c r="T6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>2</v>
+      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>0</v>
@@ -1436,23 +1440,23 @@
       <c r="X6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>2</v>
+      <c r="Y6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>0</v>
@@ -1461,19 +1465,19 @@
         <v>2</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1" t="s">
         <v>2</v>
@@ -1488,22 +1492,22 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="1" t="s">
         <v>2</v>
@@ -1515,10 +1519,10 @@
         <v>2</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>0</v>
@@ -1536,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="30" customHeight="1">
+    <row r="7" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,19 +1548,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
@@ -1568,16 +1572,16 @@
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>0</v>
@@ -1585,20 +1589,20 @@
       <c r="P7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>0</v>
+      <c r="Q7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>0</v>
+      <c r="T7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>2</v>
@@ -1606,23 +1610,23 @@
       <c r="W7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>0</v>
+      <c r="X7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>2</v>
@@ -1634,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>2</v>
@@ -1646,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>0</v>
@@ -1664,31 +1668,31 @@
         <v>2</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ7" s="1" t="s">
         <v>2</v>
@@ -1709,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="30" customHeight="1">
+    <row r="8" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -1741,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>0</v>
@@ -1761,14 +1765,14 @@
       <c r="Q8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>2</v>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>0</v>
@@ -1776,23 +1780,23 @@
       <c r="V8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>2</v>
+      <c r="W8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>2</v>
+      <c r="Z8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>0</v>
@@ -1822,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>2</v>
@@ -1840,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>2</v>
@@ -1852,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="1" t="s">
         <v>2</v>
@@ -1882,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="30" customHeight="1">
+    <row r="9" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>2</v>
@@ -1937,8 +1941,8 @@
       <c r="R9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>0</v>
+      <c r="S9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>2</v>
@@ -1946,11 +1950,11 @@
       <c r="U9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>0</v>
+      <c r="V9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>2</v>
@@ -1961,8 +1965,8 @@
       <c r="Z9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>0</v>
+      <c r="AA9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>2</v>
@@ -1998,10 +2002,10 @@
         <v>2</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>0</v>
@@ -2016,10 +2020,10 @@
         <v>2</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>0</v>
@@ -2028,16 +2032,16 @@
         <v>2</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>0</v>
@@ -2055,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="30" customHeight="1">
+    <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2081,19 +2085,19 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>2</v>
@@ -2104,8 +2108,8 @@
       <c r="P10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>2</v>
+      <c r="Q10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>2</v>
@@ -2116,14 +2120,14 @@
       <c r="T10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>2</v>
+      <c r="U10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>2</v>
@@ -2140,8 +2144,8 @@
       <c r="AB10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="2" t="s">
-        <v>2</v>
+      <c r="AC10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>2</v>
@@ -2159,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>2</v>
@@ -2174,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>0</v>
@@ -2192,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1" t="s">
         <v>2</v>
@@ -2204,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
         <v>2</v>
@@ -2228,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="30" customHeight="1">
+    <row r="11" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2251,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>2</v>
@@ -2266,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>2</v>
@@ -2274,32 +2278,32 @@
       <c r="O11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>0</v>
+      <c r="P11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>0</v>
+      <c r="T11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>0</v>
@@ -2310,32 +2314,32 @@
       <c r="AA11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>0</v>
+      <c r="AB11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>0</v>
@@ -2368,25 +2372,25 @@
         <v>2</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB11" s="1" t="s">
         <v>2</v>
@@ -2401,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="30" customHeight="1">
+    <row r="12" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -2424,16 +2428,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>2</v>
@@ -2445,34 +2449,34 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>2</v>
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>0</v>
@@ -2483,35 +2487,35 @@
       <c r="AA12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>2</v>
+      <c r="AB12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
         <v>2</v>
@@ -2523,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>2</v>
@@ -2535,28 +2539,28 @@
         <v>2</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>0</v>
@@ -2574,18 +2578,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="30" customHeight="1">
+    <row r="13" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
@@ -2597,19 +2601,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>0</v>
@@ -2618,10 +2622,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>0</v>
@@ -2629,14 +2633,14 @@
       <c r="R13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>0</v>
+      <c r="S13" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>2</v>
@@ -2659,32 +2663,32 @@
       <c r="AB13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>0</v>
+      <c r="AC13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="1" t="s">
         <v>2</v>
@@ -2696,25 +2700,25 @@
         <v>2</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV13" s="1" t="s">
         <v>2</v>
@@ -2726,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ13" s="1" t="s">
         <v>2</v>
@@ -2747,21 +2751,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="30" customHeight="1">
+    <row r="14" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -2769,35 +2773,35 @@
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>2</v>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>2</v>
+      <c r="N14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>2</v>
@@ -2815,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>2</v>
@@ -2826,8 +2830,8 @@
       <c r="Z14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA14" s="2" t="s">
-        <v>2</v>
+      <c r="AA14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
         <v>2</v>
@@ -2835,20 +2839,20 @@
       <c r="AC14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>2</v>
+      <c r="AD14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>0</v>
@@ -2872,22 +2876,22 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1" t="s">
         <v>2</v>
@@ -2905,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1" t="s">
         <v>2</v>
@@ -2920,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="30" customHeight="1">
+    <row r="15" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2928,16 +2932,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -2945,14 +2949,14 @@
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>0</v>
+      <c r="I15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>2</v>
@@ -2963,17 +2967,17 @@
       <c r="N15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>0</v>
+      <c r="O15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>0</v>
@@ -2985,25 +2989,25 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>0</v>
+      <c r="Z15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>0</v>
@@ -3011,14 +3015,14 @@
       <c r="AD15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>0</v>
+      <c r="AE15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>2</v>
@@ -3039,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>0</v>
@@ -3048,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15" s="1" t="s">
         <v>2</v>
@@ -3057,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV15" s="1" t="s">
         <v>2</v>
@@ -3078,10 +3082,10 @@
         <v>2</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>0</v>
@@ -3093,27 +3097,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="30" customHeight="1">
+    <row r="16" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>2</v>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>2</v>
@@ -3122,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
@@ -3130,8 +3134,8 @@
       <c r="L16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>2</v>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>2</v>
@@ -3140,16 +3144,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>2</v>
+      <c r="R16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>2</v>
@@ -3157,26 +3161,26 @@
       <c r="U16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>2</v>
+      <c r="V16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>0</v>
@@ -3185,10 +3189,10 @@
         <v>2</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>0</v>
@@ -3196,8 +3200,8 @@
       <c r="AH16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AI16" s="2" t="s">
-        <v>2</v>
+      <c r="AI16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>2</v>
@@ -3212,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>2</v>
@@ -3227,10 +3231,10 @@
         <v>2</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="1" t="s">
         <v>0</v>
@@ -3239,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="1" t="s">
         <v>2</v>
@@ -3254,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1" t="s">
         <v>2</v>
@@ -3266,30 +3270,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="30" customHeight="1">
+    <row r="17" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>0</v>
@@ -3300,14 +3304,14 @@
       <c r="K17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>0</v>
+      <c r="L17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>0</v>
@@ -3321,11 +3325,11 @@
       <c r="R17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>0</v>
+      <c r="S17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>0</v>
@@ -3333,23 +3337,23 @@
       <c r="V17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>0</v>
+      <c r="W17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>0</v>
@@ -3358,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>2</v>
@@ -3366,14 +3370,14 @@
       <c r="AG17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>0</v>
+      <c r="AH17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>0</v>
@@ -3384,23 +3388,23 @@
       <c r="AM17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AN17" s="3" t="s">
-        <v>0</v>
+      <c r="AN17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT17" s="1" t="s">
         <v>2</v>
@@ -3409,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="1" t="s">
         <v>2</v>
@@ -3430,62 +3434,62 @@
         <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="30" customHeight="1">
+    <row r="18" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -3494,23 +3498,23 @@
       <c r="R18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>2</v>
+      <c r="S18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>0</v>
@@ -3518,11 +3522,11 @@
       <c r="Z18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>2</v>
+      <c r="AA18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>0</v>
@@ -3540,37 +3544,37 @@
         <v>0</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AP18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>2</v>
+      <c r="AP18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>0</v>
@@ -3582,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="1" t="s">
         <v>2</v>
@@ -3597,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1" t="s">
         <v>2</v>
@@ -3606,21 +3610,21 @@
         <v>0</v>
       </c>
       <c r="BD18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="30" customHeight="1">
+    <row r="19" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
@@ -3631,32 +3635,32 @@
       <c r="F19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>0</v>
+      <c r="G19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>2</v>
@@ -3664,35 +3668,35 @@
       <c r="Q19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>0</v>
+      <c r="R19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>0</v>
+      <c r="Z19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AB19" s="2" t="s">
         <v>2</v>
@@ -3716,22 +3720,22 @@
         <v>2</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>0</v>
@@ -3739,8 +3743,8 @@
       <c r="AP19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AQ19" s="1" t="s">
-        <v>0</v>
+      <c r="AQ19" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AR19" s="2" t="s">
         <v>2</v>
@@ -3755,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>0</v>
@@ -3770,10 +3774,10 @@
         <v>2</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>0</v>
@@ -3785,12 +3789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="30" customHeight="1">
+    <row r="20" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -3798,8 +3802,8 @@
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -3808,25 +3812,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>0</v>
@@ -3834,38 +3838,38 @@
       <c r="P20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>2</v>
+      <c r="Q20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>2</v>
+      <c r="X20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AB20" s="2" t="s">
         <v>2</v>
@@ -3883,31 +3887,31 @@
         <v>2</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AL20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO20" s="2" t="s">
-        <v>2</v>
+      <c r="AL20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AP20" s="2" t="s">
         <v>2</v>
@@ -3925,16 +3929,16 @@
         <v>2</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>0</v>
@@ -3943,13 +3947,13 @@
         <v>2</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1" t="s">
         <v>2</v>
@@ -3958,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="30" customHeight="1">
+    <row r="21" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3968,14 +3972,14 @@
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -3990,13 +3994,13 @@
         <v>2</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>2</v>
@@ -4004,11 +4008,11 @@
       <c r="O21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>0</v>
+      <c r="P21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>2</v>
@@ -4020,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>2</v>
@@ -4031,17 +4035,17 @@
       <c r="X21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>0</v>
+      <c r="Y21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>0</v>
@@ -4053,19 +4057,19 @@
         <v>0</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>0</v>
@@ -4073,17 +4077,17 @@
       <c r="AL21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AM21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>0</v>
+      <c r="AM21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AQ21" s="1" t="s">
         <v>0</v>
@@ -4095,16 +4099,16 @@
         <v>0</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="1" t="s">
         <v>2</v>
@@ -4113,25 +4117,25 @@
         <v>0</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="30" customHeight="1">
+    <row r="22" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -4139,16 +4143,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -4157,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>2</v>
@@ -4166,10 +4170,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>2</v>
@@ -4177,11 +4181,11 @@
       <c r="O22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>2</v>
+      <c r="P22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>2</v>
@@ -4199,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>2</v>
@@ -4207,14 +4211,14 @@
       <c r="Y22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>2</v>
+      <c r="Z22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>0</v>
@@ -4225,23 +4229,23 @@
       <c r="AE22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AF22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>2</v>
+      <c r="AF22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AJ22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK22" s="2" t="s">
-        <v>2</v>
+      <c r="AJ22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AL22" s="2" t="s">
         <v>2</v>
@@ -4249,32 +4253,32 @@
       <c r="AM22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AN22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ22" s="2" t="s">
-        <v>2</v>
+      <c r="AN22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AR22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="1" t="s">
         <v>0</v>
@@ -4283,28 +4287,28 @@
         <v>2</v>
       </c>
       <c r="AY22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="30" customHeight="1">
+    <row r="23" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -4312,13 +4316,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2</v>
@@ -4327,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>0</v>
@@ -4342,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>2</v>
@@ -4353,11 +4357,11 @@
       <c r="P23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>0</v>
+      <c r="Q23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>0</v>
@@ -4369,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>2</v>
@@ -4383,8 +4387,8 @@
       <c r="Z23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>0</v>
+      <c r="AA23" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AB23" s="2" t="s">
         <v>2</v>
@@ -4401,8 +4405,8 @@
       <c r="AF23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AG23" s="1" t="s">
-        <v>0</v>
+      <c r="AG23" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AH23" s="2" t="s">
         <v>2</v>
@@ -4413,11 +4417,11 @@
       <c r="AJ23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>0</v>
+      <c r="AK23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>0</v>
@@ -4425,26 +4429,26 @@
       <c r="AN23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AO23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>0</v>
+      <c r="AO23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>2</v>
@@ -4453,22 +4457,22 @@
         <v>0</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD23" s="1" t="s">
         <v>2</v>
@@ -4477,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="30" customHeight="1">
+    <row r="24" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -4488,28 +4492,28 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>2</v>
@@ -4530,19 +4534,19 @@
         <v>0</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>0</v>
@@ -4568,8 +4572,8 @@
       <c r="AD24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE24" s="2" t="s">
-        <v>2</v>
+      <c r="AE24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>2</v>
@@ -4580,8 +4584,8 @@
       <c r="AH24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AI24" s="2" t="s">
-        <v>2</v>
+      <c r="AI24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>2</v>
@@ -4589,11 +4593,11 @@
       <c r="AK24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AL24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM24" s="2" t="s">
-        <v>2</v>
+      <c r="AL24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AN24" s="2" t="s">
         <v>2</v>
@@ -4602,19 +4606,19 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>0</v>
@@ -4626,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1" t="s">
         <v>2</v>
@@ -4650,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="30" customHeight="1">
+    <row r="25" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4661,37 +4665,37 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>0</v>
@@ -4706,13 +4710,13 @@
         <v>2</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>2</v>
@@ -4738,26 +4742,26 @@
       <c r="AC25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="1" t="s">
-        <v>0</v>
+      <c r="AD25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>0</v>
+      <c r="AH25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>0</v>
@@ -4765,11 +4769,11 @@
       <c r="AL25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AM25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>0</v>
+      <c r="AM25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AO25" s="1" t="s">
         <v>0</v>
@@ -4784,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT25" s="1" t="s">
         <v>2</v>
@@ -4799,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ25" s="1" t="s">
         <v>2</v>
@@ -4814,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD25" s="1" t="s">
         <v>2</v>
@@ -4823,33 +4827,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="30" customHeight="1">
+    <row r="26" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>2</v>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>2</v>
@@ -4857,17 +4861,17 @@
       <c r="K26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>2</v>
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>2</v>
@@ -4879,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>0</v>
@@ -4896,8 +4900,8 @@
       <c r="X26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y26" s="2" t="s">
-        <v>2</v>
+      <c r="Y26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>2</v>
@@ -4908,32 +4912,32 @@
       <c r="AB26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>2</v>
+      <c r="AC26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>2</v>
+      <c r="AH26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AL26" s="2" t="s">
         <v>2</v>
@@ -4942,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>2</v>
@@ -4969,13 +4973,13 @@
         <v>2</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="1" t="s">
         <v>2</v>
@@ -4996,21 +5000,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="30" customHeight="1">
+    <row r="27" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>2</v>
@@ -5019,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>0</v>
@@ -5033,26 +5037,26 @@
       <c r="L27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>0</v>
+      <c r="M27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>2</v>
@@ -5066,29 +5070,29 @@
       <c r="W27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>0</v>
+      <c r="X27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>0</v>
+      <c r="AB27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AF27" s="2" t="s">
         <v>2</v>
@@ -5099,17 +5103,17 @@
       <c r="AH27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AI27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>0</v>
+      <c r="AI27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AM27" s="1" t="s">
         <v>0</v>
@@ -5118,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>0</v>
@@ -5139,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ27" s="1" t="s">
         <v>2</v>
@@ -5169,18 +5173,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="30" customHeight="1">
+    <row r="28" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
@@ -5188,20 +5192,20 @@
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>2</v>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>2</v>
@@ -5210,22 +5214,22 @@
         <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>2</v>
@@ -5237,28 +5241,28 @@
         <v>2</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="1" t="s">
         <v>0</v>
@@ -5266,8 +5270,8 @@
       <c r="AF28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AG28" s="2" t="s">
-        <v>2</v>
+      <c r="AG28" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AH28" s="2" t="s">
         <v>2</v>
@@ -5279,10 +5283,10 @@
         <v>2</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1" t="s">
         <v>0</v>
@@ -5291,13 +5295,13 @@
         <v>2</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="1" t="s">
         <v>2</v>
@@ -5312,16 +5316,16 @@
         <v>0</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="1" t="s">
         <v>2</v>
@@ -5342,15 +5346,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="30" customHeight="1">
+    <row r="29" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
@@ -5358,65 +5362,65 @@
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>0</v>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>2</v>
@@ -5428,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="1" t="s">
         <v>2</v>
@@ -5436,14 +5440,14 @@
       <c r="AE29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>0</v>
+      <c r="AF29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>0</v>
@@ -5452,7 +5456,7 @@
         <v>2</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL29" s="1" t="s">
         <v>2</v>
@@ -5464,16 +5468,16 @@
         <v>2</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>0</v>
@@ -5488,16 +5492,16 @@
         <v>2</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA29" s="1" t="s">
         <v>0</v>
@@ -5509,18 +5513,18 @@
         <v>0</v>
       </c>
       <c r="BD29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="30" customHeight="1">
+    <row r="30" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -5528,41 +5532,41 @@
       <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>2</v>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>2</v>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>2</v>
+      <c r="N30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>0</v>
@@ -5571,25 +5575,25 @@
         <v>2</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>2</v>
@@ -5607,19 +5611,19 @@
         <v>2</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="1" t="s">
         <v>2</v>
@@ -5637,16 +5641,16 @@
         <v>2</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="1" t="s">
         <v>0</v>
@@ -5661,16 +5665,16 @@
         <v>2</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AZ30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="1" t="s">
         <v>0</v>
@@ -5679,16 +5683,16 @@
         <v>2</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="30" customHeight="1">
+    <row r="31" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -5698,11 +5702,11 @@
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>0</v>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>2</v>
@@ -5713,14 +5717,14 @@
       <c r="H31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>0</v>
+      <c r="I31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>2</v>
@@ -5731,8 +5735,8 @@
       <c r="N31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>0</v>
+      <c r="O31" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>2</v>
@@ -5741,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>2</v>
@@ -5756,16 +5760,16 @@
         <v>2</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>0</v>
@@ -5777,22 +5781,22 @@
         <v>0</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ31" s="1" t="s">
         <v>2</v>
@@ -5801,16 +5805,16 @@
         <v>0</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>2</v>
@@ -5831,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX31" s="1" t="s">
         <v>2</v>
@@ -5849,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD31" s="1" t="s">
         <v>2</v>
@@ -5861,21 +5865,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="30" customHeight="1">
+    <row r="32" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>2</v>
@@ -5890,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>0</v>
@@ -5914,10 +5918,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>2</v>
@@ -5938,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>2</v>
@@ -5950,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1" t="s">
         <v>0</v>
@@ -5959,10 +5963,10 @@
         <v>2</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1" t="s">
         <v>0</v>
@@ -5974,28 +5978,28 @@
         <v>0</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1" t="s">
         <v>2</v>
@@ -6004,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="AV32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="1" t="s">
         <v>2</v>
@@ -6022,10 +6026,10 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="1" t="s">
         <v>2</v>
@@ -6034,24 +6038,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="30" customHeight="1">
+    <row r="33" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -6090,10 +6094,10 @@
         <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>0</v>
@@ -6105,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>0</v>
@@ -6114,10 +6118,10 @@
         <v>2</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>0</v>
@@ -6129,10 +6133,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH33" s="1" t="s">
         <v>2</v>
@@ -6141,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>0</v>
@@ -6150,25 +6154,25 @@
         <v>2</v>
       </c>
       <c r="AM33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT33" s="1" t="s">
         <v>2</v>
@@ -6180,10 +6184,10 @@
         <v>2</v>
       </c>
       <c r="AW33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="1" t="s">
         <v>0</v>
@@ -6198,36 +6202,36 @@
         <v>2</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="30" customHeight="1">
+    <row r="34" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>2</v>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>2</v>
@@ -6244,8 +6248,8 @@
       <c r="L34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>2</v>
+      <c r="M34" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>2</v>
@@ -6266,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>0</v>
@@ -6275,13 +6279,13 @@
         <v>2</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>2</v>
@@ -6290,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="1" t="s">
         <v>2</v>
@@ -6302,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1" t="s">
         <v>0</v>
@@ -6311,10 +6315,10 @@
         <v>2</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>0</v>
@@ -6326,22 +6330,22 @@
         <v>0</v>
       </c>
       <c r="AN34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1" t="s">
         <v>2</v>
@@ -6356,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="1" t="s">
         <v>2</v>
@@ -6371,39 +6375,39 @@
         <v>2</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="30" customHeight="1">
+    <row r="35" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>0</v>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>0</v>
@@ -6414,14 +6418,14 @@
       <c r="K35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>0</v>
+      <c r="L35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>0</v>
@@ -6445,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>0</v>
@@ -6466,7 +6470,7 @@
         <v>2</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD35" s="1" t="s">
         <v>2</v>
@@ -6481,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="AH35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ35" s="1" t="s">
         <v>2</v>
@@ -6502,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP35" s="1" t="s">
         <v>2</v>
@@ -6514,10 +6518,10 @@
         <v>2</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>0</v>
@@ -6532,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="AY35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ35" s="1" t="s">
         <v>2</v>
@@ -6541,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD35" s="1" t="s">
         <v>2</v>
@@ -6553,30 +6557,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="30" customHeight="1">
+    <row r="36" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>0</v>
@@ -6585,16 +6589,16 @@
         <v>2</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>0</v>
@@ -6609,7 +6613,7 @@
         <v>2</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>2</v>
@@ -6618,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>2</v>
@@ -6645,16 +6649,16 @@
         <v>2</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="1" t="s">
         <v>0</v>
@@ -6687,10 +6691,10 @@
         <v>2</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="1" t="s">
         <v>0</v>
@@ -6711,10 +6715,10 @@
         <v>2</v>
       </c>
       <c r="BA36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>0</v>
@@ -6726,27 +6730,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="30" customHeight="1">
+    <row r="37" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>2</v>
@@ -6758,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
@@ -6779,10 +6783,10 @@
         <v>0</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>2</v>
@@ -6791,22 +6795,22 @@
         <v>0</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>2</v>
@@ -6815,16 +6819,16 @@
         <v>0</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH37" s="1" t="s">
         <v>2</v>
@@ -6857,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT37" s="1" t="s">
         <v>2</v>
@@ -6875,16 +6879,16 @@
         <v>0</v>
       </c>
       <c r="AX37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AZ37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB37" s="1" t="s">
         <v>2</v>
@@ -6899,15 +6903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="30" customHeight="1">
+    <row r="38" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
@@ -6916,16 +6920,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>2</v>
@@ -6937,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>2</v>
@@ -6952,10 +6956,10 @@
         <v>0</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>2</v>
@@ -6964,22 +6968,22 @@
         <v>0</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>2</v>
@@ -6987,14 +6991,14 @@
       <c r="AC38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF38" s="2" t="s">
-        <v>2</v>
+      <c r="AD38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>0</v>
@@ -7009,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1" t="s">
         <v>2</v>
@@ -7030,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>0</v>
@@ -7048,16 +7052,16 @@
         <v>0</v>
       </c>
       <c r="AX38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1" t="s">
         <v>2</v>
@@ -7072,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="30" customHeight="1">
+    <row r="39" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -7080,10 +7084,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>0</v>
@@ -7092,25 +7096,25 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>2</v>
@@ -7125,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>2</v>
@@ -7140,7 +7144,7 @@
         <v>2</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>2</v>
@@ -7152,10 +7156,10 @@
         <v>2</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>0</v>
@@ -7163,8 +7167,8 @@
       <c r="AD39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE39" s="1" t="s">
-        <v>0</v>
+      <c r="AE39" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>2</v>
@@ -7179,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="1" t="s">
         <v>0</v>
@@ -7224,13 +7228,13 @@
         <v>2</v>
       </c>
       <c r="AY39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB39" s="1" t="s">
         <v>2</v>
@@ -7245,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="30" customHeight="1">
+    <row r="40" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -7256,31 +7260,31 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>0</v>
@@ -7294,11 +7298,11 @@
       <c r="P40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>2</v>
+      <c r="Q40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>0</v>
@@ -7307,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>2</v>
@@ -7319,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>2</v>
@@ -7327,11 +7331,11 @@
       <c r="AA40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>2</v>
+      <c r="AB40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>2</v>
@@ -7349,19 +7353,19 @@
         <v>2</v>
       </c>
       <c r="AI40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="1" t="s">
         <v>2</v>
@@ -7391,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="AW40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="1" t="s">
         <v>2</v>
@@ -7400,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1" t="s">
         <v>2</v>
@@ -7418,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="30" customHeight="1">
+    <row r="41" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -7429,19 +7433,19 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>0</v>
@@ -7450,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>2</v>
@@ -7459,16 +7463,16 @@
         <v>0</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>0</v>
+      <c r="P41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>2</v>
@@ -7477,22 +7481,22 @@
         <v>0</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>2</v>
@@ -7503,11 +7507,11 @@
       <c r="AB41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>0</v>
+      <c r="AC41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AE41" s="1" t="s">
         <v>0</v>
@@ -7522,22 +7526,22 @@
         <v>2</v>
       </c>
       <c r="AI41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO41" s="1" t="s">
         <v>0</v>
@@ -7561,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="AV41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY41" s="1" t="s">
         <v>0</v>
@@ -7576,10 +7580,10 @@
         <v>2</v>
       </c>
       <c r="BA41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC41" s="1" t="s">
         <v>0</v>
@@ -7591,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="30" customHeight="1">
+    <row r="42" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -7602,22 +7606,22 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>2</v>
@@ -7629,16 +7633,16 @@
         <v>2</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>0</v>
@@ -7650,22 +7654,22 @@
         <v>0</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>2</v>
@@ -7680,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="1" t="s">
         <v>0</v>
@@ -7697,20 +7701,20 @@
       <c r="AI42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AJ42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN42" s="2" t="s">
-        <v>2</v>
+      <c r="AJ42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AO42" s="1" t="s">
         <v>0</v>
@@ -7719,7 +7723,7 @@
         <v>2</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="1" t="s">
         <v>2</v>
@@ -7731,28 +7735,28 @@
         <v>2</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BA42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC42" s="1" t="s">
         <v>0</v>
@@ -7764,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="30" customHeight="1">
+    <row r="43" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -7778,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2</v>
@@ -7790,28 +7794,28 @@
         <v>2</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>0</v>
@@ -7826,22 +7830,22 @@
         <v>2</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>0</v>
@@ -7873,14 +7877,14 @@
       <c r="AJ43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="1" t="s">
-        <v>0</v>
+      <c r="AK43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AN43" s="2" t="s">
         <v>2</v>
@@ -7889,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR43" s="1" t="s">
         <v>2</v>
@@ -7901,31 +7905,31 @@
         <v>0</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC43" s="1" t="s">
         <v>0</v>
@@ -7937,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:57" ht="30" customHeight="1">
+    <row r="44" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -7945,7 +7949,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
@@ -7966,13 +7970,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>0</v>
@@ -7981,10 +7985,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>0</v>
@@ -8001,23 +8005,23 @@
       <c r="U44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>2</v>
+      <c r="V44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>2</v>
+      <c r="Z44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AB44" s="2" t="s">
         <v>2</v>
@@ -8050,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="1" t="s">
         <v>0</v>
@@ -8062,43 +8066,43 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AV44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB44" s="2" t="s">
-        <v>2</v>
+      <c r="AV44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="BC44" s="1" t="s">
         <v>0</v>
@@ -8110,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="30" customHeight="1">
+    <row r="45" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -8118,10 +8122,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>0</v>
@@ -8139,10 +8143,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>2</v>
@@ -8151,10 +8155,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>2</v>
@@ -8169,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>0</v>
@@ -8177,8 +8181,8 @@
       <c r="V45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W45" s="1" t="s">
-        <v>0</v>
+      <c r="W45" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="X45" s="2" t="s">
         <v>2</v>
@@ -8189,11 +8193,11 @@
       <c r="Z45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>0</v>
+      <c r="AA45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>0</v>
@@ -8211,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI45" s="1" t="s">
         <v>0</v>
@@ -8235,19 +8239,19 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU45" s="1" t="s">
         <v>0</v>
@@ -8255,20 +8259,20 @@
       <c r="AV45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AW45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA45" s="1" t="s">
-        <v>0</v>
+      <c r="AW45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA45" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="BB45" s="2" t="s">
         <v>2</v>
@@ -8283,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="30" customHeight="1">
+    <row r="46" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -8291,10 +8295,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>0</v>
@@ -8303,28 +8307,28 @@
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>0</v>
@@ -8333,19 +8337,19 @@
         <v>2</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>2</v>
+      <c r="S46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>2</v>
@@ -8356,8 +8360,8 @@
       <c r="X46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y46" s="2" t="s">
-        <v>2</v>
+      <c r="Y46" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="Z46" s="2" t="s">
         <v>2</v>
@@ -8366,28 +8370,28 @@
         <v>0</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AG46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI46" s="2" t="s">
-        <v>2</v>
+      <c r="AG46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AJ46" s="2" t="s">
         <v>2</v>
@@ -8399,31 +8403,31 @@
         <v>2</v>
       </c>
       <c r="AM46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AO46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU46" s="2" t="s">
-        <v>2</v>
+      <c r="AO46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AV46" s="2" t="s">
         <v>2</v>
@@ -8432,211 +8436,384 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BC46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD46" s="2" t="s">
+      <c r="BC46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BE46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="30" customHeight="1">
+    <row r="47" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>0</v>
+      <c r="X47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AA47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AK47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AN47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV47" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AW47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AX47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="BB47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC47" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="BD47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BE47" s="1" t="s">
+      <c r="BE48" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A51:XFD1048576 BF1:XFD10 AK1:AQ1 AK47:AQ47 A7:O7 R6:AE6 A6:P6 AY11:XFD12 BE13:XFD34 AY14:BD20 BC21:BD21 AY37:XFD50 BC35:XFD36 Y7:Y10 AR1:BE12 AE6:AE11 Q7:AE7 AH17:AI17 AI16:AJ16 AI14:AI15 AD21:AJ24 AB22:AC24 AB25:AJ26 A11:AJ13 A14:AH14 A15:AG15 H20:N20 A19:G20 H19:AE19 P20:AC21 P22:AA25 O20:O25 AR13:AX13 A21:N24 G26:AA26 G27:AL27 F25:N25 F26:F27 A25:E26 C27:E27 A27:B28 C28:AJ28 A29:AJ47 AK42:AN42 AN43:AN46 AO46:AV46 AR36:BE47 A1:AJ4 A5:AE5 A8:AE10 AF5:AJ10 AK6:AL6 AL2:AL5 AM2:AP2 AP3:AP4 AN4:AO4 AN5:AN8 AM8 AD20:AE20 AI19:AJ19 A16:AE18 AG16:AG19 AS14:AX15 AR17:AS20 AU16:AX19 AR23:AY35 AR21:AW22 AY21 BC25:BD34 AZ23:BC23 AZ30:BB36 AZ24:BA29">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
+  <conditionalFormatting sqref="A1:BE5 AG5:BE8 A5:AF11 AF6:AH7 AH7:AH10 AG8:AK11 AM8:BE14 A11:AK14 A14:AH15 AI14:AI16 AK14:AK16 AM14:AO16 AS14:BE16 A15:AG16 AQ15:AQ17 AI16:AK16 A16:AE19 AG16:AG20 AU16:BE20 AH17:AK18 AM17:AS18 AS18:AS24 H19:AE20 AI19:AS20 A19:G21 P20:AC22 AY20:BE22 O20:O26 AD21:AW23 A21:N25 AB22:AC25 BE22:BE25 P22:AA26 AD23:BC24 A25:E27 AB25:BA27 BC25:BE30 F26:AA26 F26:F28 AS26:AS29 G27:BA27 A27:B29 C28:BA28 A29:BA29 A30:BE48">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH17:AK17 AI16:AK16 AK14:AK15 AI14:AI15 AS18:AS23 AB22:AC24 A14:AH14 A15:AG15 H20:N20 A19:G20 H19:AE19 P20:AC21 P22:AA25 O20:O25 AB25:BA26 AS26:AS28 A21:N24 G26:AA26 G27:BA27 F25:N25 F26:F27 A25:E26 C27:E27 A27:B28 C28:BA28 A30:BE47 A5:AF10 AF6:AH6 AH7:AH10 A1:BE4 AG5:BE7 AG8:AK10 A11:AK13 AM8:BE13 AO18:AS18 AD20:AE20 AI19:AS19 AK20:AS20 A16:AE18 AG16:AG19 AM17:AS17 AM16 AM14:AO15 AQ15:AQ16 AS14:BE15 AU16:BE19 AD23:BC23 AD21:AW22 AY20:BE21 BE22:BE24 AD24:BA24 A29:BA29 BC25:BE29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
+  <conditionalFormatting sqref="AK1:AQ2 AR1:BE13 A1:AJ14 AM2:AP3 AL2:AL6 AP3:AP4 AN4:AP5 AN5:AN9 AK6:AL7 AM8:AM9 AY11:XFD12 AR13:AX14 BE13:XFD34 A14:AH15 AI14:AI16 AS14:AX16 AY14:BD21 BE14:BE35 A15:AG16 AI16:AJ17 A16:AE19 AG16:AG20 AU16:AX20 AH17:AI18 AR17:AS21 H19:AE20 AI19:AJ20 A19:G21 P20:AC22 O20:O26 AY21:AY22 BC21:BD22 AR21:AW23 AD21:AJ24 A21:N25 P22:AA26 AB22:AJ27 AZ23:BC24 AR23:AY36 AZ24:BA30 A25:E27 BC25:BD35 F26:AA26 F26:F28 G27:AL27 A27:B29 C28:AL28 A29:AJ48 AZ30:BB37 BC35:XFD36 AR36:BE48 AY37:XFD50 AK42:AN43 AN43:AN47 AO46:AV47 AK47:AQ48 BF1:XFD10 A51:XFD1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8895,13 +9072,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4719F7C5-F3C6-4CB0-9B07-B691BFCB5737}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4719F7C5-F3C6-4CB0-9B07-B691BFCB5737}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d74ce9a-e85c-4d96-b5ea-515b3ebc749a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB6F56E-3002-4BDA-815A-CAA400C5CBA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB6F56E-3002-4BDA-815A-CAA400C5CBA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18852598-AEA8-428E-9A58-7FF73CFF643A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18852598-AEA8-428E-9A58-7FF73CFF643A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d74ce9a-e85c-4d96-b5ea-515b3ebc749a"/>
+    <ds:schemaRef ds:uri="8a1aa7ec-cb4b-4f57-a396-db394b058a9d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>